--- a/results/cv_results_SIDER_rare.xlsx
+++ b/results/cv_results_SIDER_rare.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3597963749251809</v>
+        <v>0.7423496001822336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4057018640775795</v>
+        <v>0.7840227042606219</v>
       </c>
       <c r="E8" t="n">
-        <v>0.341473646777828</v>
+        <v>0.667441263423005</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01832272814735287</v>
+        <v>0.07490833675922863</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3607827993704232</v>
+        <v>0.665452877521948</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04491906470715631</v>
+        <v>0.1185698267386739</v>
       </c>
     </row>
     <row r="9">
@@ -686,22 +686,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4170707981649028</v>
+        <v>0.4186122620603025</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4842958206362363</v>
+        <v>0.4947991621792776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4064256435702729</v>
+        <v>0.4079674165578835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01064515459462991</v>
+        <v>0.01064484550241902</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4315010561915147</v>
+        <v>0.4427191493374759</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05279476444472163</v>
+        <v>0.05208001284180176</v>
       </c>
     </row>
     <row r="10">
@@ -820,22 +820,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6735079904293458</v>
+        <v>0.8000700813649894</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7282698712955344</v>
+        <v>0.865895916731184</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6191701889984161</v>
+        <v>0.7343167875111176</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05433780143092973</v>
+        <v>0.06575329385387176</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6374443531950681</v>
+        <v>0.7593434248743299</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09082551810046639</v>
+        <v>0.1065524918568541</v>
       </c>
     </row>
     <row r="15">
@@ -846,22 +846,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5210178060636174</v>
+        <v>0.5210178025766709</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5338930102060691</v>
+        <v>0.5338929963001762</v>
       </c>
       <c r="E15" t="n">
-        <v>0.510114373116976</v>
+        <v>0.5101143701454711</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01090343294664136</v>
+        <v>0.01090343243119976</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5116396178633539</v>
+        <v>0.5116396028056714</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02225339234271515</v>
+        <v>0.02225339349450471</v>
       </c>
     </row>
     <row r="16">
@@ -980,22 +980,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6305887108301874</v>
+        <v>0.6761598783972863</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6483109008315877</v>
+        <v>0.7031241002824062</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5888687272009063</v>
+        <v>0.6216380215929143</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04171998362928114</v>
+        <v>0.05452185680437204</v>
       </c>
       <c r="G20" t="n">
-        <v>0.569954978501338</v>
+        <v>0.6130462027652475</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0783559223302497</v>
+        <v>0.09007789751715881</v>
       </c>
     </row>
     <row r="21">
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6391019470719459</v>
+        <v>0.6391799282981189</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6838140357124626</v>
+        <v>0.6839030028622932</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6185534954086748</v>
+        <v>0.6186312108429175</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02054845166327117</v>
+        <v>0.02054871745520135</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6079115626231711</v>
+        <v>0.6079993526567602</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07590247308929145</v>
+        <v>0.07590365020553307</v>
       </c>
     </row>
     <row r="22">
@@ -1140,22 +1140,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6824462626167412</v>
+        <v>0.7868118784042059</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6619451613452725</v>
+        <v>0.7647522656804755</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6038033348078994</v>
+        <v>0.6844290570063565</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07864292780884186</v>
+        <v>0.1023828213978494</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5567781754938016</v>
+        <v>0.6471865084768497</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1051669858514709</v>
+        <v>0.1175657572036258</v>
       </c>
     </row>
     <row r="27">
@@ -1166,22 +1166,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7107779765146471</v>
+        <v>0.7107911499151208</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7264856276888468</v>
+        <v>0.726498041649848</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6495176846617053</v>
+        <v>0.6495308607503043</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0612602918529418</v>
+        <v>0.06126028916481654</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6341408688711753</v>
+        <v>0.6341543420942667</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09234475881767157</v>
+        <v>0.09234369955558128</v>
       </c>
     </row>
     <row r="28">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6607841344944506</v>
+        <v>0.6576620229976131</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6938121039458779</v>
+        <v>0.6838747591234204</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6129443399976578</v>
+        <v>0.6017740820903822</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04783979449679281</v>
+        <v>0.05588794090723097</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6007181955687771</v>
+        <v>0.5821368420975255</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09309390837710074</v>
+        <v>0.101737917025895</v>
       </c>
     </row>
     <row r="33">
@@ -1326,22 +1326,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.541456214532541</v>
+        <v>0.5429688508940137</v>
       </c>
       <c r="D33" t="n">
-        <v>0.58068422882896</v>
+        <v>0.5724838486913175</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5208021998163906</v>
+        <v>0.5223752515788302</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02065401471615034</v>
+        <v>0.02059359931518346</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4970977903632375</v>
+        <v>0.4953929082341387</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08358643846572254</v>
+        <v>0.07709094045717883</v>
       </c>
     </row>
     <row r="34">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.7411603827572781</v>
+        <v>0.7458577907119978</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7354494636656314</v>
+        <v>0.7402463155636283</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7127595336666968</v>
+        <v>0.71540809675045</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02840084909058135</v>
+        <v>0.03044969396154773</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6947243347171216</v>
+        <v>0.7020000644011285</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04072512894850982</v>
+        <v>0.03824625116249982</v>
       </c>
     </row>
     <row r="39">
@@ -1486,22 +1486,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4263238017656724</v>
+        <v>0.42620653135007</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4166119487367473</v>
+        <v>0.4165881834312638</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4174874100216417</v>
+        <v>0.4173734790493323</v>
       </c>
       <c r="F39" t="n">
-        <v>0.008836391744030669</v>
+        <v>0.008833052300737743</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4041684160771156</v>
+        <v>0.4041476457237239</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01244353265963166</v>
+        <v>0.0124405377075399</v>
       </c>
     </row>
     <row r="40">
@@ -1620,22 +1620,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.755502824268656</v>
+        <v>0.7528904472860017</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7716174120554508</v>
+        <v>0.7638596896663924</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7205263255817382</v>
+        <v>0.7197828629433278</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03497649868691779</v>
+        <v>0.03310758434267393</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7251095102827028</v>
+        <v>0.7208623833460942</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04650790177274798</v>
+        <v>0.04299730632029819</v>
       </c>
     </row>
     <row r="45">
@@ -1646,22 +1646,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.488458463704518</v>
+        <v>0.4883157783805844</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4806031024176102</v>
+        <v>0.4780712300362716</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4792526536852642</v>
+        <v>0.4791153179294232</v>
       </c>
       <c r="F45" t="n">
-        <v>0.009205810019253842</v>
+        <v>0.009200460451161147</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4653778457820753</v>
+        <v>0.4646770342644439</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01522525663553499</v>
+        <v>0.01339419577182768</v>
       </c>
     </row>
   </sheetData>
